--- a/ctr_results_parallel.xlsx
+++ b/ctr_results_parallel.xlsx
@@ -8,18 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sabrinajiang/Desktop/CS378H_Final_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC1B41AF-AC36-6A4C-A6E2-EA2F7D197AB8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1ADC2C8-1D20-E34E-BD18-D60058DBEA6E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{10A61A30-EB81-2447-B7D7-A7D9CD280C00}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{10A61A30-EB81-2447-B7D7-A7D9CD280C00}"/>
   </bookViews>
   <sheets>
-    <sheet name="times" sheetId="1" r:id="rId1"/>
-    <sheet name="extra focus" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet 2" sheetId="3" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v2.0" hidden="1">'extra focus'!$D$4:$D$7</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">'extra focus'!$F$4:$F$7</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -30,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="20">
   <si>
     <t>INPUT SIZE</t>
   </si>
@@ -56,9 +52,6 @@
     <t>FINE</t>
   </si>
   <si>
-    <t>observations:</t>
-  </si>
-  <si>
     <t>10000 blocks</t>
   </si>
   <si>
@@ -77,19 +70,7 @@
     <t>1000000 blocks</t>
   </si>
   <si>
-    <t>More workers -&gt; more speedup, esp for fine grained inputs</t>
-  </si>
-  <si>
     <t>1000 blocks</t>
-  </si>
-  <si>
-    <t>More fine grained + many threads -&gt; more speedup</t>
-  </si>
-  <si>
-    <t>Larger input size -&gt; more speedup, esp for fine grained inputs</t>
-  </si>
-  <si>
-    <t>Slower on lab machine????</t>
   </si>
   <si>
     <t>|</t>
@@ -111,7 +92,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -135,15 +116,28 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="16"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -153,6 +147,17 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -165,25 +170,32 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Style 1" xfId="3" xr:uid="{6E092ABD-EBF6-384F-A1F1-E49DB896884C}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -234,10 +246,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>times!$D$4:$D$7</c:f>
+              <c:f>'Sheet 1'!$D$4:$D$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -246,19 +258,16 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>times!$F$4:$F$7</c:f>
+              <c:f>'Sheet 1'!$F$4:$F$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>5.5851219991486512E-2</c:v>
                 </c:pt>
@@ -267,9 +276,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1.2458196081552027</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.1072093881449447</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -483,10 +489,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>times!$V$12:$V$15</c:f>
+              <c:f>'Sheet 1'!$V$11:$V$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -495,19 +501,16 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>times!$X$12:$X$15</c:f>
+              <c:f>'Sheet 1'!$X$11:$X$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0.79528204464080532</c:v>
                 </c:pt>
@@ -516,9 +519,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.8928342550027959</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.0692830222612959</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -732,10 +732,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>times!$V$19:$V$22</c:f>
+              <c:f>'Sheet 1'!$V$18:$V$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -744,19 +744,16 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>times!$X$19:$X$22</c:f>
+              <c:f>'Sheet 1'!$X$18:$X$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0.75503128525274665</c:v>
                 </c:pt>
@@ -765,9 +762,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1.0534822159332695</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.0362695420574932</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -981,10 +975,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>times!$V$26:$V$29</c:f>
+              <c:f>'Sheet 1'!$V$25:$V$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -993,19 +987,16 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>times!$X$26:$X$29</c:f>
+              <c:f>'Sheet 1'!$X$25:$X$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0.94147727487283661</c:v>
                 </c:pt>
@@ -1014,9 +1005,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.8688064674359649</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.9686202622907274</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1300,10 +1288,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>times!$D$4:$D$7</c:f>
+              <c:f>'Sheet 1'!$D$4:$D$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1312,19 +1300,16 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>times!$F$4:$F$7</c:f>
+              <c:f>'Sheet 1'!$F$4:$F$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>5.5851219991486512E-2</c:v>
                 </c:pt>
@@ -1333,9 +1318,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1.2458196081552027</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.1072093881449447</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1364,10 +1346,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>times!$D$4:$D$7</c:f>
+              <c:f>'Sheet 1'!$D$4:$D$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1376,19 +1358,16 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>times!$O$4:$O$7</c:f>
+              <c:f>'Sheet 1'!$O$4:$O$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0.23927011204417051</c:v>
                 </c:pt>
@@ -1397,9 +1376,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>6.8660578020038496</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.2895455597962346</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1428,10 +1404,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>times!$D$4:$D$7</c:f>
+              <c:f>'Sheet 1'!$D$4:$D$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1440,19 +1416,16 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>times!$X$5:$X$8</c:f>
+              <c:f>'Sheet 1'!$X$4:$X$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>6.1016139923086072</c:v>
                 </c:pt>
@@ -1461,9 +1434,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>133.58248775291338</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>146.64829886277087</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1494,6 +1464,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t># Workers</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1791,10 +1816,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>times!$M$4:$M$7</c:f>
+              <c:f>'Sheet 1'!$M$4:$M$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1803,19 +1828,16 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>times!$F$11:$F$14</c:f>
+              <c:f>'Sheet 1'!$F$11:$F$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0.375273244858979</c:v>
                 </c:pt>
@@ -1824,9 +1846,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1.0556211448985076</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.6112020158912348</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1855,10 +1874,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>times!$M$4:$M$7</c:f>
+              <c:f>'Sheet 1'!$M$4:$M$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1867,19 +1886,16 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>times!$O$11:$O$14</c:f>
+              <c:f>'Sheet 1'!$O$11:$O$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0.70213199164437745</c:v>
                 </c:pt>
@@ -1888,9 +1904,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.90989184429251269</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.63004135225731628</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1919,10 +1932,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>times!$M$4:$M$7</c:f>
+              <c:f>'Sheet 1'!$M$4:$M$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1931,19 +1944,16 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>times!$X$12:$X$15</c:f>
+              <c:f>'Sheet 1'!$X$11:$X$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0.79528204464080532</c:v>
                 </c:pt>
@@ -1952,9 +1962,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.8928342550027959</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.0692830222612959</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1985,6 +1992,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t># Workers</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2284,12 +2346,30 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$V$25:$V$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>times!$F$18:$F$21</c:f>
+              <c:f>'Sheet 1'!$F$18:$F$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0.89238359917236443</c:v>
                 </c:pt>
@@ -2298,9 +2378,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1.361741546527782</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.70804069948083614</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2327,12 +2404,30 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$V$25:$V$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>times!$O$18:$O$21</c:f>
+              <c:f>'Sheet 1'!$O$18:$O$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0.82529293329704057</c:v>
                 </c:pt>
@@ -2341,9 +2436,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.95234630266445164</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.87409995155978892</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2370,12 +2462,30 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$V$25:$V$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>times!$X$19:$X$22</c:f>
+              <c:f>'Sheet 1'!$X$18:$X$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0.75503128525274665</c:v>
                 </c:pt>
@@ -2384,9 +2494,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1.0534822159332695</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.0362695420574932</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2417,6 +2524,69 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>#</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> W</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>orkers</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2707,10 +2877,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>times!$V$26:$V$29</c:f>
+              <c:f>'Sheet 1'!$V$25:$V$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -2719,19 +2889,16 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>times!$F$25:$F$28</c:f>
+              <c:f>'Sheet 1'!$F$25:$F$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0.96791204473757675</c:v>
                 </c:pt>
@@ -2740,9 +2907,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.83024268614886565</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.4826578811906812</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2771,10 +2935,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>times!$V$26:$V$29</c:f>
+              <c:f>'Sheet 1'!$V$25:$V$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -2783,19 +2947,16 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>times!$O$25:$O$28</c:f>
+              <c:f>'Sheet 1'!$O$25:$O$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0.78018496452324526</c:v>
                 </c:pt>
@@ -2804,9 +2965,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.69324299930751931</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.65942584949993099</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2835,10 +2993,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>times!$V$26:$V$29</c:f>
+              <c:f>'Sheet 1'!$V$25:$V$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -2847,19 +3005,16 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>times!$X$26:$X$29</c:f>
+              <c:f>'Sheet 1'!$X$25:$X$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0.94147727487283661</c:v>
                 </c:pt>
@@ -2868,9 +3023,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.8688064674359649</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.9686202622907274</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2901,6 +3053,66 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>#</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Workers</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3086,6 +3298,624 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>#</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Workers vs. Speedup For Fine to Coarse Inputs </a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="en-US" baseline="0"/>
+            </a:br>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Input size 10^6 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:t>(Logarithmic)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>1000000 Blocks (FINE)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 2'!$D$4:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet 2'!$F$4:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6.1016139923086072</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75.020972349506906</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>133.58248775291338</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>146.64829886277087</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E30E-1149-B559-98A5BECF9716}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>100000 Blocks</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet 2'!$F$11:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.2432196039630066</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26.003207061345918</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35.861300040503188</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31.506680586117966</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-E30E-1149-B559-98A5BECF9716}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>10000 Blocks</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet 2'!$F$18:$F$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.4795560599925717</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.2598132492330176</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.9093915251091516</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4267044605697556</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-E30E-1149-B559-98A5BECF9716}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>1000 Blocks</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="92D050"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet 2'!$F$25:$F$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.82814813445308133</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1289918655319096</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.90273361862051282</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5465907676418017</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-E30E-1149-B559-98A5BECF9716}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>100 Blocks</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet 2'!$F$25:$F$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.82814813445308133</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1289918655319096</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.90273361862051282</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5465907676418017</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-E30E-1149-B559-98A5BECF9716}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>10 Blocks</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="0070C0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet 2'!$F$39:$F$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.75503128525274665</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1318302072061726</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0534822159332695</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0362695420574932</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-E30E-1149-B559-98A5BECF9716}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>1 Block (COARSE)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="7030A0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet 2'!$F$46:$F$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.94147727487283661</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98032947952049831</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8688064674359649</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9686202622907274</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-E30E-1149-B559-98A5BECF9716}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="413116768"/>
+        <c:axId val="413118448"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="413116768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="413118448"/>
+        <c:crossesAt val="1.0000000000000005E-9"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="413118448"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="413116768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -3122,10 +3952,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>times!$D$11:$D$14</c:f>
+              <c:f>'Sheet 1'!$D$11:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3134,19 +3964,16 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>times!$F$11:$F$14</c:f>
+              <c:f>'Sheet 1'!$F$11:$F$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0.375273244858979</c:v>
                 </c:pt>
@@ -3155,9 +3982,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1.0556211448985076</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.6112020158912348</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3369,10 +4193,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>times!$D$18:$D$21</c:f>
+              <c:f>'Sheet 1'!$D$18:$D$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3381,19 +4205,16 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>times!$F$18:$F$21</c:f>
+              <c:f>'Sheet 1'!$F$18:$F$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0.89238359917236443</c:v>
                 </c:pt>
@@ -3402,9 +4223,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1.361741546527782</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.70804069948083614</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3616,10 +4434,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>times!$D$25:$D$28</c:f>
+              <c:f>'Sheet 1'!$D$25:$D$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3628,19 +4446,16 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>times!$F$25:$F$28</c:f>
+              <c:f>'Sheet 1'!$F$25:$F$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0.96791204473757675</c:v>
                 </c:pt>
@@ -3649,9 +4464,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.83024268614886565</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.4826578811906812</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3863,10 +4675,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>times!$M$4:$M$7</c:f>
+              <c:f>'Sheet 1'!$M$4:$M$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3875,19 +4687,16 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>times!$O$4:$O$7</c:f>
+              <c:f>'Sheet 1'!$O$4:$O$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0.23927011204417051</c:v>
                 </c:pt>
@@ -3896,9 +4705,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>6.8660578020038496</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.2895455597962346</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4110,10 +4916,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>times!$M$11:$M$14</c:f>
+              <c:f>'Sheet 1'!$M$11:$M$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -4122,19 +4928,16 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>times!$O$11:$O$14</c:f>
+              <c:f>'Sheet 1'!$O$11:$O$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0.70213199164437745</c:v>
                 </c:pt>
@@ -4143,9 +4946,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.90989184429251269</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.63004135225731628</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4358,10 +5158,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>times!$M$18:$M$21</c:f>
+              <c:f>'Sheet 1'!$M$18:$M$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -4370,19 +5170,16 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>times!$O$18:$O$21</c:f>
+              <c:f>'Sheet 1'!$O$18:$O$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0.82529293329704057</c:v>
                 </c:pt>
@@ -4391,9 +5188,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.95234630266445164</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.87409995155978892</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4605,10 +5399,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>times!$M$25:$M$28</c:f>
+              <c:f>'Sheet 1'!$M$25:$M$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -4617,19 +5411,16 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>times!$O$25:$O$28</c:f>
+              <c:f>'Sheet 1'!$O$25:$O$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0.78018496452324526</c:v>
                 </c:pt>
@@ -4638,9 +5429,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.69324299930751931</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.65942584949993099</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4855,10 +5643,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>times!$V$5:$V$8</c:f>
+              <c:f>'Sheet 1'!$V$4:$V$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -4867,19 +5655,16 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>times!$X$5:$X$8</c:f>
+              <c:f>'Sheet 1'!$X$4:$X$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>6.1016139923086072</c:v>
                 </c:pt>
@@ -4888,9 +5673,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>133.58248775291338</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>146.64829886277087</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5386,6 +6168,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors17.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -9730,6 +10552,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style17.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -14048,14 +15373,14 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>336550</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>207023</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>717550</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>234334</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14084,14 +15409,14 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>26670</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>40324</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>781050</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>89855</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14120,14 +15445,14 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>311150</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>64454</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>819150</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>140654</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14156,14 +15481,14 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>294216</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>51755</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>781049</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>115254</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14299,13 +15624,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
+      <xdr:colOff>292101</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>505269</xdr:colOff>
       <xdr:row>48</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
@@ -14327,6 +15652,47 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{617DBC39-13C2-EF49-A857-522B5216A68B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -14632,13 +15998,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5118738E-3FC6-0643-9681-CBF91C3C5F23}">
-  <dimension ref="A1:AA55"/>
+  <dimension ref="A1:AA29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="93" workbookViewId="0">
-      <selection activeCell="AB8" sqref="AB8"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K54" sqref="K54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="20.5" customWidth="1"/>
     <col min="2" max="2" width="16.1640625" customWidth="1"/>
@@ -14654,15 +16020,15 @@
     <col min="24" max="24" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="B1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+    <row r="1" spans="1:24" ht="21">
+      <c r="B1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
     </row>
-    <row r="2" spans="1:24" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" ht="19" customHeight="1"/>
+    <row r="3" spans="1:24">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -14695,9 +16061,24 @@
         <v>6</v>
       </c>
       <c r="P3" s="2"/>
+      <c r="T3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="4" spans="1:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:24" ht="21">
+      <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B4">
@@ -14709,7 +16090,7 @@
       <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4">
         <v>279.18756300000001</v>
       </c>
       <c r="F4">
@@ -14732,25 +16113,26 @@
         <f>N8/N4</f>
         <v>0.23927011204417051</v>
       </c>
-      <c r="T4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="U4" s="2" t="s">
+      <c r="T4">
+        <v>1000000</v>
+      </c>
+      <c r="U4">
         <v>1</v>
       </c>
-      <c r="V4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="W4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="X4" s="2" t="s">
-        <v>6</v>
+      <c r="V4">
+        <v>1</v>
+      </c>
+      <c r="W4" s="1">
+        <v>29814.672253000001</v>
+      </c>
+      <c r="X4">
+        <f>W8/W4</f>
+        <v>6.1016139923086072</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>20</v>
+    <row r="5" spans="1:24" ht="21">
+      <c r="A5" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="D5">
         <v>10</v>
@@ -14772,29 +16154,23 @@
         <f>N8/N5</f>
         <v>3.0935076144387623</v>
       </c>
-      <c r="T5">
-        <v>1000000</v>
-      </c>
-      <c r="U5">
-        <v>1</v>
-      </c>
       <c r="V5">
-        <v>1</v>
-      </c>
-      <c r="W5" s="1">
-        <v>29814.672253000001</v>
+        <v>10</v>
+      </c>
+      <c r="W5">
+        <v>2424.89021</v>
       </c>
       <c r="X5">
-        <f>W9/W5</f>
-        <v>6.1016139923086072</v>
+        <f>W8/W5</f>
+        <v>75.020972349506906</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>21</v>
+    <row r="6" spans="1:24" ht="21">
+      <c r="A6" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6">
         <v>100</v>
@@ -14802,12 +16178,12 @@
       <c r="E6">
         <v>12.516230999999999</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6">
         <f>E8/E6</f>
         <v>1.2458196081552027</v>
       </c>
       <c r="K6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M6">
         <v>100</v>
@@ -14815,62 +16191,32 @@
       <c r="N6">
         <v>114.725988</v>
       </c>
-      <c r="O6" s="3">
+      <c r="O6">
         <f>N8/N6</f>
         <v>6.8660578020038496</v>
       </c>
+      <c r="T6" t="s">
+        <v>13</v>
+      </c>
       <c r="V6">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="W6">
-        <v>2424.89021</v>
+        <v>1361.837352</v>
       </c>
       <c r="X6">
-        <f>W9/W6</f>
-        <v>75.020972349506906</v>
+        <f>W8/W6</f>
+        <v>133.58248775291338</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7">
-        <v>1000</v>
-      </c>
-      <c r="E7">
-        <v>14.083123000000001</v>
-      </c>
-      <c r="F7">
-        <f>E8/E7</f>
-        <v>1.1072093881449447</v>
-      </c>
-      <c r="M7">
-        <v>1000</v>
-      </c>
-      <c r="N7">
-        <v>125.242</v>
-      </c>
-      <c r="O7">
-        <f>N8/N7</f>
-        <v>6.2895455597962346</v>
-      </c>
-      <c r="T7" t="s">
-        <v>14</v>
-      </c>
-      <c r="V7">
-        <v>100</v>
-      </c>
-      <c r="W7">
-        <v>1361.837352</v>
-      </c>
-      <c r="X7">
-        <f>W9/W7</f>
-        <v>133.58248775291338</v>
+    <row r="7" spans="1:24" ht="21">
+      <c r="A7" s="6" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>23</v>
+    <row r="8" spans="1:24" ht="21">
+      <c r="A8" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="D8" t="s">
         <v>5</v>
@@ -14884,26 +16230,14 @@
       <c r="N8">
         <v>787.71526500000004</v>
       </c>
-      <c r="V8">
-        <v>1000</v>
+      <c r="V8" t="s">
+        <v>5</v>
       </c>
       <c r="W8">
-        <v>1240.5027729999999</v>
-      </c>
-      <c r="X8" s="3">
-        <f>W9/W8</f>
-        <v>146.64829886277087</v>
+        <v>181917.62139499999</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="V9" t="s">
-        <v>5</v>
-      </c>
-      <c r="W9">
-        <v>181917.62139499999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24">
       <c r="B10" s="2" t="s">
         <v>0</v>
       </c>
@@ -14932,12 +16266,27 @@
       <c r="N10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O10" s="2" t="s">
+      <c r="O10" t="s">
         <v>6</v>
       </c>
       <c r="P10" s="2"/>
+      <c r="T10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="U10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="V10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="W10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="X10" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24">
       <c r="B11">
         <v>10000</v>
       </c>
@@ -14947,7 +16296,7 @@
       <c r="D11">
         <v>1</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11">
         <v>7.9150619999999998</v>
       </c>
       <c r="F11">
@@ -14970,30 +16319,31 @@
         <f>N15/N11</f>
         <v>0.70213199164437745</v>
       </c>
-      <c r="T11" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="U11" s="2" t="s">
+      <c r="T11">
+        <v>1000000</v>
+      </c>
+      <c r="U11">
+        <v>10000</v>
+      </c>
+      <c r="V11">
         <v>1</v>
       </c>
-      <c r="V11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="W11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="X11" s="2" t="s">
-        <v>6</v>
+      <c r="W11" s="1">
+        <v>2110.5399779999998</v>
+      </c>
+      <c r="X11">
+        <f>W15/W11</f>
+        <v>0.79528204464080532</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24">
       <c r="D12">
         <v>10</v>
       </c>
       <c r="E12">
         <v>2.721292</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12">
         <f>E15/E12</f>
         <v>1.09150763681369</v>
       </c>
@@ -15003,30 +16353,24 @@
       <c r="N12">
         <v>39.653995000000002</v>
       </c>
-      <c r="O12" s="3">
+      <c r="O12">
         <f>N15/N12</f>
         <v>0.93303459084009055</v>
       </c>
-      <c r="T12">
-        <v>1000000</v>
-      </c>
-      <c r="U12">
-        <v>10000</v>
-      </c>
       <c r="V12">
-        <v>1</v>
-      </c>
-      <c r="W12" s="1">
-        <v>2110.5399779999998</v>
+        <v>10</v>
+      </c>
+      <c r="W12">
+        <v>1624.697713</v>
       </c>
       <c r="X12">
-        <f>W16/W12</f>
-        <v>0.79528204464080532</v>
+        <f>W15/W12</f>
+        <v>1.0330995948167498</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24">
       <c r="B13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D13">
         <v>100</v>
@@ -15039,7 +16383,7 @@
         <v>1.0556211448985076</v>
       </c>
       <c r="K13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M13">
         <v>100</v>
@@ -15051,53 +16395,21 @@
         <f>N15/N13</f>
         <v>0.90989184429251269</v>
       </c>
+      <c r="T13" t="s">
+        <v>9</v>
+      </c>
       <c r="V13">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="W13">
-        <v>1624.697713</v>
+        <v>1879.9396859999999</v>
       </c>
       <c r="X13">
-        <f>W16/W13</f>
-        <v>1.0330995948167498</v>
+        <f>W15/W13</f>
+        <v>0.8928342550027959</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="D14">
-        <v>1000</v>
-      </c>
-      <c r="E14">
-        <v>4.8597859999999997</v>
-      </c>
-      <c r="F14">
-        <f>E15/E14</f>
-        <v>0.6112020158912348</v>
-      </c>
-      <c r="M14">
-        <v>1000</v>
-      </c>
-      <c r="N14">
-        <v>58.724001000000001</v>
-      </c>
-      <c r="O14">
-        <f>N15/N14</f>
-        <v>0.63004135225731628</v>
-      </c>
-      <c r="T14" t="s">
-        <v>10</v>
-      </c>
-      <c r="V14">
-        <v>100</v>
-      </c>
-      <c r="W14">
-        <v>1879.9396859999999</v>
-      </c>
-      <c r="X14">
-        <f>W16/W14</f>
-        <v>0.8928342550027959</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24">
       <c r="D15" t="s">
         <v>4</v>
       </c>
@@ -15110,26 +16422,14 @@
       <c r="N15">
         <v>36.998548999999997</v>
       </c>
-      <c r="V15">
-        <v>1000</v>
+      <c r="V15" t="s">
+        <v>5</v>
       </c>
       <c r="W15">
-        <v>1569.7196289999999</v>
-      </c>
-      <c r="X15" s="3">
-        <f>W16/W15</f>
-        <v>1.0692830222612959</v>
+        <v>1678.474549</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="V16" t="s">
-        <v>5</v>
-      </c>
-      <c r="W16">
-        <v>1678.474549</v>
-      </c>
-    </row>
-    <row r="17" spans="2:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:27" s="2" customFormat="1">
       <c r="B17" s="2" t="s">
         <v>0</v>
       </c>
@@ -15157,19 +16457,29 @@
       <c r="N17" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O17" s="2" t="s">
+      <c r="O17" t="s">
         <v>6</v>
       </c>
-      <c r="T17"/>
-      <c r="U17"/>
-      <c r="V17"/>
-      <c r="W17"/>
-      <c r="X17"/>
+      <c r="T17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="U17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="V17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="W17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="X17" t="s">
+        <v>6</v>
+      </c>
       <c r="Y17"/>
       <c r="Z17"/>
       <c r="AA17"/>
     </row>
-    <row r="18" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:27">
       <c r="B18">
         <v>10000</v>
       </c>
@@ -15179,7 +16489,7 @@
       <c r="D18">
         <v>1</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18">
         <v>8.7487779999999997</v>
       </c>
       <c r="F18">
@@ -15202,26 +16512,27 @@
         <f>N22/N18</f>
         <v>0.82529293329704057</v>
       </c>
-      <c r="T18" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="U18" s="2" t="s">
+      <c r="T18">
+        <v>1000000</v>
+      </c>
+      <c r="U18">
+        <v>100000</v>
+      </c>
+      <c r="V18">
         <v>1</v>
       </c>
-      <c r="V18" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="W18" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="X18" s="2" t="s">
-        <v>6</v>
+      <c r="W18" s="1">
+        <v>14738.10692</v>
+      </c>
+      <c r="X18">
+        <f>W22/W18</f>
+        <v>0.75503128525274665</v>
       </c>
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
     </row>
-    <row r="19" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:27">
       <c r="D19">
         <v>10</v>
       </c>
@@ -15238,30 +16549,24 @@
       <c r="N19">
         <v>165.50475299999999</v>
       </c>
-      <c r="O19" s="3">
+      <c r="O19">
         <f>N22/N19</f>
         <v>1.1170414241819389</v>
       </c>
-      <c r="T19">
-        <v>1000000</v>
-      </c>
-      <c r="U19">
-        <v>100000</v>
-      </c>
       <c r="V19">
-        <v>1</v>
-      </c>
-      <c r="W19" s="1">
-        <v>14738.10692</v>
+        <v>10</v>
+      </c>
+      <c r="W19">
+        <v>9831.6264570000003</v>
       </c>
       <c r="X19">
-        <f>W23/W19</f>
-        <v>0.75503128525274665</v>
+        <f>W22/W19</f>
+        <v>1.1318302072061726</v>
       </c>
     </row>
-    <row r="20" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:27">
       <c r="B20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D20">
         <v>100</v>
@@ -15269,12 +16574,12 @@
       <c r="E20">
         <v>5.733295</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20">
         <f>E22/E20</f>
         <v>1.361741546527782</v>
       </c>
       <c r="K20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M20">
         <v>100</v>
@@ -15286,53 +16591,21 @@
         <f>N22/N20</f>
         <v>0.95234630266445164</v>
       </c>
+      <c r="T20" t="s">
+        <v>10</v>
+      </c>
       <c r="V20">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="W20">
-        <v>9831.6264570000003</v>
-      </c>
-      <c r="X20" s="3">
-        <f>W23/W20</f>
-        <v>1.1318302072061726</v>
+        <v>10562.809359000001</v>
+      </c>
+      <c r="X20">
+        <f>W22/W20</f>
+        <v>1.0534822159332695</v>
       </c>
     </row>
-    <row r="21" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="D21">
-        <v>1000</v>
-      </c>
-      <c r="E21">
-        <v>11.026578000000001</v>
-      </c>
-      <c r="F21">
-        <f>E22/E21</f>
-        <v>0.70804069948083614</v>
-      </c>
-      <c r="M21">
-        <v>1000</v>
-      </c>
-      <c r="N21">
-        <v>211.50403299999999</v>
-      </c>
-      <c r="O21">
-        <f>N22/N21</f>
-        <v>0.87409995155978892</v>
-      </c>
-      <c r="T21" t="s">
-        <v>11</v>
-      </c>
-      <c r="V21">
-        <v>100</v>
-      </c>
-      <c r="W21">
-        <v>10562.809359000001</v>
-      </c>
-      <c r="X21">
-        <f>W23/W21</f>
-        <v>1.0534822159332695</v>
-      </c>
-    </row>
-    <row r="22" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:27">
       <c r="D22" t="s">
         <v>5</v>
       </c>
@@ -15345,26 +16618,14 @@
       <c r="N22">
         <v>184.875665</v>
       </c>
-      <c r="V22">
-        <v>1000</v>
+      <c r="V22" t="s">
+        <v>5</v>
       </c>
       <c r="W22">
-        <v>10738.260036</v>
-      </c>
-      <c r="X22">
-        <f>W23/W22</f>
-        <v>1.0362695420574932</v>
+        <v>11127.731809999999</v>
       </c>
     </row>
-    <row r="23" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="V23" t="s">
-        <v>5</v>
-      </c>
-      <c r="W23">
-        <v>11127.731809999999</v>
-      </c>
-    </row>
-    <row r="24" spans="2:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:27" s="2" customFormat="1">
       <c r="B24" s="2" t="s">
         <v>0</v>
       </c>
@@ -15392,19 +16653,29 @@
       <c r="N24" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O24" s="2" t="s">
+      <c r="O24" t="s">
         <v>6</v>
       </c>
-      <c r="T24"/>
-      <c r="U24"/>
-      <c r="V24"/>
-      <c r="W24"/>
-      <c r="X24"/>
+      <c r="T24" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="U24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="V24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="W24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="X24" t="s">
+        <v>6</v>
+      </c>
       <c r="Y24"/>
       <c r="Z24"/>
       <c r="AA24"/>
     </row>
-    <row r="25" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:27">
       <c r="B25">
         <v>10000</v>
       </c>
@@ -15417,7 +16688,7 @@
       <c r="E25">
         <v>24.312269000000001</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25">
         <f>E29/E25</f>
         <v>0.96791204473757675</v>
       </c>
@@ -15437,26 +16708,27 @@
         <f>N29/N25</f>
         <v>0.78018496452324526</v>
       </c>
-      <c r="T25" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="U25" s="2" t="s">
+      <c r="T25">
+        <v>1000000</v>
+      </c>
+      <c r="U25">
+        <v>1000000</v>
+      </c>
+      <c r="V25">
         <v>1</v>
       </c>
-      <c r="V25" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="W25" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="X25" s="2" t="s">
-        <v>6</v>
+      <c r="W25">
+        <v>117176.762174</v>
+      </c>
+      <c r="X25">
+        <f>W29/W25</f>
+        <v>0.94147727487283661</v>
       </c>
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
       <c r="AA25" s="2"/>
     </row>
-    <row r="26" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:27">
       <c r="D26">
         <v>10</v>
       </c>
@@ -15473,30 +16745,24 @@
       <c r="N26">
         <v>1282.158889</v>
       </c>
-      <c r="O26" s="3">
+      <c r="O26">
         <f>N29/N26</f>
         <v>0.79843514386772696</v>
       </c>
-      <c r="T26">
-        <v>1000000</v>
-      </c>
-      <c r="U26">
-        <v>1000000</v>
-      </c>
       <c r="V26">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="W26">
-        <v>117176.762174</v>
+        <v>112532.838229</v>
       </c>
       <c r="X26">
-        <f>W30/W26</f>
-        <v>0.94147727487283661</v>
+        <f>W29/W26</f>
+        <v>0.98032947952049831</v>
       </c>
     </row>
-    <row r="27" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:27">
       <c r="B27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D27">
         <v>100</v>
@@ -15509,7 +16775,7 @@
         <v>0.83024268614886565</v>
       </c>
       <c r="K27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M27">
         <v>100</v>
@@ -15521,53 +16787,21 @@
         <f>N29/N27</f>
         <v>0.69324299930751931</v>
       </c>
+      <c r="T27" t="s">
+        <v>11</v>
+      </c>
       <c r="V27">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="W27">
-        <v>112532.838229</v>
-      </c>
-      <c r="X27" s="3">
-        <f>W30/W27</f>
-        <v>0.98032947952049831</v>
+        <v>126977.943725</v>
+      </c>
+      <c r="X27">
+        <f>W29/W27</f>
+        <v>0.8688064674359649</v>
       </c>
     </row>
-    <row r="28" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="D28">
-        <v>1000</v>
-      </c>
-      <c r="E28">
-        <v>48.755316999999998</v>
-      </c>
-      <c r="F28">
-        <f>E29/E28</f>
-        <v>0.4826578811906812</v>
-      </c>
-      <c r="M28">
-        <v>1000</v>
-      </c>
-      <c r="N28">
-        <v>1552.4425040000001</v>
-      </c>
-      <c r="O28">
-        <f>N29/N28</f>
-        <v>0.65942584949993099</v>
-      </c>
-      <c r="T28" t="s">
-        <v>12</v>
-      </c>
-      <c r="V28">
-        <v>100</v>
-      </c>
-      <c r="W28">
-        <v>126977.943725</v>
-      </c>
-      <c r="X28">
-        <f>W30/W28</f>
-        <v>0.8688064674359649</v>
-      </c>
-    </row>
-    <row r="29" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:27">
       <c r="D29" t="s">
         <v>5</v>
       </c>
@@ -15580,48 +16814,11 @@
       <c r="N29">
         <v>1023.720717</v>
       </c>
-      <c r="V29">
-        <v>1000</v>
+      <c r="V29" t="s">
+        <v>5</v>
       </c>
       <c r="W29">
-        <v>113893.19739099999</v>
-      </c>
-      <c r="X29">
-        <f>W30/W29</f>
-        <v>0.9686202622907274</v>
-      </c>
-    </row>
-    <row r="30" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="V30" t="s">
-        <v>5</v>
-      </c>
-      <c r="W30">
         <v>110319.25873</v>
-      </c>
-    </row>
-    <row r="51" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C51" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="52" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E52" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="53" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E53" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="54" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E54" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="55" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E55" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -15634,11 +16831,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55557912-A007-D24C-89B2-98C331C52061}">
   <dimension ref="A3:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScale="136" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="20.1640625" customWidth="1"/>
     <col min="2" max="4" width="11" bestFit="1" customWidth="1"/>
@@ -15646,7 +16843,7 @@
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:6">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -15663,7 +16860,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:6">
       <c r="B4">
         <v>1000000</v>
       </c>
@@ -15681,7 +16878,7 @@
         <v>6.1016139923086072</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:6">
       <c r="D5">
         <v>10</v>
       </c>
@@ -15693,9 +16890,9 @@
         <v>75.020972349506906</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:6">
       <c r="B6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6">
         <v>100</v>
@@ -15708,7 +16905,7 @@
         <v>133.58248775291338</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:6">
       <c r="D7">
         <v>1000</v>
       </c>
@@ -15720,7 +16917,7 @@
         <v>146.64829886277087</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:6">
       <c r="D8" t="s">
         <v>5</v>
       </c>
@@ -15728,7 +16925,7 @@
         <v>181917.62139499999</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:6">
       <c r="B10" s="2" t="s">
         <v>0</v>
       </c>
@@ -15745,7 +16942,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:6">
       <c r="B11">
         <v>1000000</v>
       </c>
@@ -15763,7 +16960,7 @@
         <v>2.2432196039630066</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:6">
       <c r="D12">
         <v>10</v>
       </c>
@@ -15775,9 +16972,9 @@
         <v>26.003207061345918</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:6">
       <c r="B13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D13">
         <v>100</v>
@@ -15790,7 +16987,7 @@
         <v>35.861300040503188</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:6">
       <c r="D14">
         <v>1000</v>
       </c>
@@ -15802,7 +16999,7 @@
         <v>31.506680586117966</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:6">
       <c r="D15" t="s">
         <v>5</v>
       </c>
@@ -15810,7 +17007,7 @@
         <v>9365.8808850000005</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="B17" s="2" t="s">
         <v>0</v>
       </c>
@@ -15827,7 +17024,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="B18">
         <v>1000000</v>
       </c>
@@ -15845,7 +17042,7 @@
         <v>1.4795560599925717</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="D19">
         <v>10</v>
       </c>
@@ -15857,12 +17054,12 @@
         <v>4.2598132492330176</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+    <row r="20" spans="1:6">
+      <c r="A20" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D20">
         <v>100</v>
@@ -15875,9 +17072,9 @@
         <v>3.9093915251091516</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>20</v>
+    <row r="21" spans="1:6">
+      <c r="A21" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="D21">
         <v>1000</v>
@@ -15890,9 +17087,9 @@
         <v>2.4267044605697556</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>21</v>
+    <row r="22" spans="1:6">
+      <c r="A22" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="D22" t="s">
         <v>5</v>
@@ -15901,14 +17098,14 @@
         <v>904.71948699999996</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>22</v>
+    <row r="23" spans="1:6">
+      <c r="A23" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>23</v>
+    <row r="24" spans="1:6">
+      <c r="A24" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>0</v>
@@ -15926,7 +17123,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="B25">
         <v>1000000</v>
       </c>
@@ -15944,7 +17141,7 @@
         <v>0.82814813445308133</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="D26">
         <v>10</v>
       </c>
@@ -15956,9 +17153,9 @@
         <v>1.1289918655319096</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="B27" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D27">
         <v>100</v>
@@ -15971,7 +17168,7 @@
         <v>0.90273361862051282</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6">
       <c r="D28">
         <v>1000</v>
       </c>
@@ -15983,7 +17180,7 @@
         <v>0.5465907676418017</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6">
       <c r="D29" t="s">
         <v>5</v>
       </c>
@@ -15991,7 +17188,7 @@
         <v>424.90634999999997</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6">
       <c r="B31" s="2" t="s">
         <v>0</v>
       </c>
@@ -16008,7 +17205,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6">
       <c r="B32">
         <v>1000000</v>
       </c>
@@ -16026,7 +17223,7 @@
         <v>0.79528204464080532</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:6">
       <c r="D33">
         <v>10</v>
       </c>
@@ -16038,9 +17235,9 @@
         <v>1.0330995948167498</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:6">
       <c r="B34" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D34">
         <v>100</v>
@@ -16053,7 +17250,7 @@
         <v>0.8928342550027959</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:6">
       <c r="D35">
         <v>1000</v>
       </c>
@@ -16065,7 +17262,7 @@
         <v>1.0692830222612959</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:6">
       <c r="D36" t="s">
         <v>5</v>
       </c>
@@ -16073,7 +17270,7 @@
         <v>1678.474549</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:6">
       <c r="B38" s="2" t="s">
         <v>0</v>
       </c>
@@ -16090,7 +17287,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:6">
       <c r="B39">
         <v>1000000</v>
       </c>
@@ -16108,7 +17305,7 @@
         <v>0.75503128525274665</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:6">
       <c r="D40">
         <v>10</v>
       </c>
@@ -16120,9 +17317,9 @@
         <v>1.1318302072061726</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:6">
       <c r="B41" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D41">
         <v>100</v>
@@ -16135,7 +17332,7 @@
         <v>1.0534822159332695</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:6">
       <c r="D42">
         <v>1000</v>
       </c>
@@ -16147,7 +17344,7 @@
         <v>1.0362695420574932</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:6">
       <c r="D43" t="s">
         <v>5</v>
       </c>
@@ -16155,7 +17352,7 @@
         <v>11127.731809999999</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:6">
       <c r="B45" s="2" t="s">
         <v>0</v>
       </c>
@@ -16172,7 +17369,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:6">
       <c r="B46">
         <v>1000000</v>
       </c>
@@ -16190,7 +17387,7 @@
         <v>0.94147727487283661</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:6">
       <c r="D47">
         <v>10</v>
       </c>
@@ -16202,9 +17399,9 @@
         <v>0.98032947952049831</v>
       </c>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:6">
       <c r="B48" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D48">
         <v>100</v>
@@ -16217,7 +17414,7 @@
         <v>0.8688064674359649</v>
       </c>
     </row>
-    <row r="49" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="4:6">
       <c r="D49">
         <v>1000</v>
       </c>
@@ -16229,7 +17426,7 @@
         <v>0.9686202622907274</v>
       </c>
     </row>
-    <row r="50" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="4:6">
       <c r="D50" t="s">
         <v>5</v>
       </c>
@@ -16239,5 +17436,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>